--- a/data/topic_interpretations.xlsx
+++ b/data/topic_interpretations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshayjain/Box Sync/Police Misconduct Project/Watts Project 2/Datasets/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshayjain/Documents/GitHub/documentAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40490A6-7A58-7744-9F84-78F790A04677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26CFF27-29AF-5B46-B144-16974A1FF3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33520" yWindow="-7560" windowWidth="28040" windowHeight="15840" xr2:uid="{6DD4F887-69C2-F646-BE23-46662032B7FF}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28600" windowHeight="15780" xr2:uid="{6DD4F887-69C2-F646-BE23-46662032B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Physical Force</t>
   </si>
@@ -50,22 +50,34 @@
     <t>Inventory</t>
   </si>
   <si>
-    <t>Weapon/Restraint</t>
-  </si>
-  <si>
-    <t>Failure to respond</t>
-  </si>
-  <si>
     <t>Family Members</t>
   </si>
   <si>
-    <t>Race/Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False Arrest/Store </t>
-  </si>
-  <si>
     <t>(Unclear)</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>False Arrest/ Force</t>
+  </si>
+  <si>
+    <t>Unclear</t>
+  </si>
+  <si>
+    <t>Identity (Race, Gender, clothes)</t>
+  </si>
+  <si>
+    <t>Cell Phone</t>
+  </si>
+  <si>
+    <t>Failure to Provide Something</t>
+  </si>
+  <si>
+    <t>Weapon/Detainment/Drugs</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
   </si>
 </sst>
 </file>
@@ -130,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -138,6 +150,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,137 +479,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426735AD-415C-7F4F-BAEE-0091D21DE4A2}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="D2" s="5"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="D15" s="5"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
